--- a/biology/Botanique/Postelsia_palmaeformis/Postelsia_palmaeformis.xlsx
+++ b/biology/Botanique/Postelsia_palmaeformis/Postelsia_palmaeformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Postelsia palmaeformis (appelée postelsia palmiforme au Canada[1]) est une espèce d'algues brunes de la famille des Laminariaceae. C'est la seule espèce connue du genre Postelsia, nommé en l'honneur du phycologue Alexandre Postels (1801-1876).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Postelsia palmaeformis (appelée postelsia palmiforme au Canada) est une espèce d'algues brunes de la famille des Laminariaceae. C'est la seule espèce connue du genre Postelsia, nommé en l'honneur du phycologue Alexandre Postels (1801-1876).
 Elle ressemble à un petit palmier, et vit sur les côtes au nord de la côte ouest de l'Amérique du Nord.
 </t>
         </is>
